--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1053,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -80,51 +80,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -580,19 +535,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -720,16 +675,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>47.22</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -860,19 +818,19 @@
         <v>36</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>77.78</v>
+      </c>
+      <c r="H4">
         <v>9</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>75</v>
-      </c>
-      <c r="H4">
-        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,7 +866,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,121 +899,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920066</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920060</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920359</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920039</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -483,19 +483,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>38.89</v>
+        <v>44.44</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -509,19 +509,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>34.48</v>
+        <v>44.83</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -535,10 +535,10 @@
         <v>36</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>28</v>
@@ -547,7 +547,7 @@
         <v>77.78</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -561,19 +561,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -629,16 +629,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>19.44</v>
+      </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -652,16 +655,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>27.59</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -675,19 +681,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>47.22</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -701,16 +707,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>45.45</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -766,19 +775,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>38.89</v>
+        <v>44.44</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -792,19 +801,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>34.48</v>
+        <v>48.28</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -818,19 +827,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>77.78</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -844,19 +853,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>68.18000000000001</v>
+        <v>72.73</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,57 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>AMALIO JARET</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
   </si>
 </sst>
 </file>
@@ -629,19 +680,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>19.44</v>
+        <v>22.22</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -707,19 +758,19 @@
         <v>22</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
       <c r="G5">
-        <v>45.45</v>
+        <v>54.55</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +926,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,6 +959,144 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920091</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920060</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920069</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -82,55 +82,55 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>AMALIO JARET</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
   </si>
   <si>
     <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>AMALIO JARET</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920359</v>
+        <v>20330051920091</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920091</v>
+        <v>19330051920060</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -996,10 +996,10 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1007,22 +1007,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920060</v>
+        <v>18330051920069</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920069</v>
+        <v>18330051920172</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920172</v>
+        <v>18330051920044</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920044</v>
+        <v>20330051920359</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1088,13 +1088,13 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
   <si>
     <t>Mat</t>
   </si>
@@ -82,55 +82,103 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>OLMOS</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>AMALIO JARET</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>KARLA JOVANA</t>
   </si>
   <si>
     <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>AMALIO JARET</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
   </si>
 </sst>
 </file>
@@ -926,7 +974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +1009,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920091</v>
+        <v>20330051920087</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -970,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -984,22 +1032,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920060</v>
+        <v>20330051920090</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1007,22 +1055,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920069</v>
+        <v>20330051920093</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1030,22 +1078,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920172</v>
+        <v>20330051920068</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1053,22 +1101,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920044</v>
+        <v>20330051920069</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1076,16 +1124,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920359</v>
+        <v>20330051920386</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1094,6 +1142,144 @@
         <v>11</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920060</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920069</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920359</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920091</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
